--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Compiled Results.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Compiled Results.xlsx
@@ -495,6 +495,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -503,12 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,12 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,79 +900,79 @@
       <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="52" t="s">
+      <c r="C1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="52" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="52" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="52" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="53" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="52" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="53" t="s">
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="52" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="52" t="s">
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="50" t="s">
         <v>25</v>
       </c>
       <c r="AN1" s="54"/>
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="15">
@@ -1218,7 +1218,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="15">
         <v>2</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="15">
         <v>4</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="15">
         <v>5</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="15">
         <v>6</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="15">
         <v>7</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="15">
         <v>8</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="15">
         <v>9</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="15">
         <v>10</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="15">
         <v>11</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="15">
         <v>12</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="15">
         <v>13</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="15">
         <v>14</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="15">
         <v>16</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="15">
         <v>17</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="15">
         <v>18</v>
       </c>
@@ -3378,7 +3378,7 @@
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="15">
         <v>19</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="15">
         <v>20</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="15">
         <v>21</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="15">
         <v>22</v>
       </c>
@@ -3858,7 +3858,7 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="15">
         <v>23</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="15">
         <v>24</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="15">
         <v>25</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="15">
         <v>26</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="16">
         <v>27</v>
       </c>
@@ -4458,7 +4458,7 @@
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="17">
@@ -4580,7 +4580,7 @@
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="15">
         <v>1</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="15">
         <v>2</v>
       </c>
@@ -4820,7 +4820,7 @@
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="15">
         <v>3</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="15">
         <v>4</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="15">
         <v>5</v>
       </c>
@@ -5180,7 +5180,7 @@
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="15">
         <v>6</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="15">
         <v>7</v>
       </c>
@@ -5420,7 +5420,7 @@
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="15">
         <v>8</v>
       </c>
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="15">
         <v>9</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="15">
         <v>10</v>
       </c>
@@ -5780,7 +5780,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="15">
         <v>11</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="15">
         <v>12</v>
       </c>
@@ -6020,7 +6020,7 @@
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="15">
         <v>13</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="15">
         <v>14</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="15">
         <v>15</v>
       </c>
@@ -6380,7 +6380,7 @@
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="15">
         <v>16</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="15">
         <v>17</v>
       </c>
@@ -6620,7 +6620,7 @@
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="15">
         <v>18</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="15">
         <v>19</v>
       </c>
@@ -6860,7 +6860,7 @@
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="15">
         <v>20</v>
       </c>
@@ -6980,7 +6980,7 @@
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="15">
         <v>21</v>
       </c>
@@ -7100,7 +7100,7 @@
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="15">
         <v>22</v>
       </c>
@@ -7220,7 +7220,7 @@
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="15">
         <v>23</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="15">
         <v>24</v>
       </c>
@@ -7460,7 +7460,7 @@
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="15">
         <v>25</v>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="15">
         <v>26</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
     </row>
     <row r="58" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="16">
         <v>27</v>
       </c>
@@ -7820,7 +7820,7 @@
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="17">
@@ -7942,7 +7942,7 @@
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="15">
         <v>1</v>
       </c>
@@ -8062,7 +8062,7 @@
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="15">
         <v>2</v>
       </c>
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="15">
         <v>3</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="15">
         <v>4</v>
       </c>
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="15">
         <v>5</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="15">
         <v>6</v>
       </c>
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="15">
         <v>7</v>
       </c>
@@ -8782,7 +8782,7 @@
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="15">
         <v>8</v>
       </c>
@@ -8902,7 +8902,7 @@
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="15">
         <v>9</v>
       </c>
@@ -9022,7 +9022,7 @@
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="15">
         <v>10</v>
       </c>
@@ -9105,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="AC69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="29">
-        <v>3.2258064516129031E-2</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="3">
         <v>0</v>
@@ -9142,7 +9142,7 @@
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="15">
         <v>11</v>
       </c>
@@ -9225,10 +9225,10 @@
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AC70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="29">
-        <v>0</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="AE70" s="3">
         <v>0</v>
@@ -9262,7 +9262,7 @@
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="15">
         <v>12</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="15">
         <v>13</v>
       </c>
@@ -9502,7 +9502,7 @@
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="15">
         <v>14</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="15">
         <v>15</v>
       </c>
@@ -9742,7 +9742,7 @@
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="15">
         <v>16</v>
       </c>
@@ -9862,7 +9862,7 @@
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="15">
         <v>17</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="15">
         <v>18</v>
       </c>
@@ -10102,7 +10102,7 @@
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="15">
         <v>19</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="15">
         <v>20</v>
       </c>
@@ -10342,7 +10342,7 @@
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="15">
         <v>21</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="15">
         <v>22</v>
       </c>
@@ -10582,7 +10582,7 @@
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="15">
         <v>23</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="15">
         <v>24</v>
       </c>
@@ -10822,7 +10822,7 @@
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="15">
         <v>25</v>
       </c>
@@ -10942,7 +10942,7 @@
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="15">
         <v>26</v>
       </c>
@@ -11062,7 +11062,7 @@
       </c>
     </row>
     <row r="86" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="16">
         <v>27</v>
       </c>
@@ -11182,7 +11182,7 @@
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="18">
@@ -11304,7 +11304,7 @@
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="19">
         <v>1</v>
       </c>
@@ -11424,7 +11424,7 @@
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="19">
         <v>2</v>
       </c>
@@ -11544,7 +11544,7 @@
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="19">
         <v>3</v>
       </c>
@@ -11664,7 +11664,7 @@
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="19">
         <v>4</v>
       </c>
@@ -11784,7 +11784,7 @@
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="19">
         <v>5</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="19">
         <v>6</v>
       </c>
@@ -12024,7 +12024,7 @@
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="19">
         <v>7</v>
       </c>
@@ -12144,7 +12144,7 @@
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="19">
         <v>8</v>
       </c>
@@ -12264,7 +12264,7 @@
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="19">
         <v>9</v>
       </c>
@@ -12384,7 +12384,7 @@
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="19">
         <v>10</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="19">
         <v>11</v>
       </c>
@@ -12624,7 +12624,7 @@
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="19">
         <v>12</v>
       </c>
@@ -12744,7 +12744,7 @@
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="19">
         <v>13</v>
       </c>
@@ -12864,7 +12864,7 @@
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="19">
         <v>14</v>
       </c>
@@ -12984,7 +12984,7 @@
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="19">
         <v>15</v>
       </c>
@@ -13104,7 +13104,7 @@
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A103" s="50"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="19">
         <v>16</v>
       </c>
@@ -13224,7 +13224,7 @@
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="19">
         <v>17</v>
       </c>
@@ -13344,7 +13344,7 @@
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="19">
         <v>18</v>
       </c>
@@ -13464,7 +13464,7 @@
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="19">
         <v>19</v>
       </c>
@@ -13584,7 +13584,7 @@
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="19">
         <v>20</v>
       </c>
@@ -13704,7 +13704,7 @@
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="19">
         <v>21</v>
       </c>
@@ -13824,7 +13824,7 @@
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="19">
         <v>22</v>
       </c>
@@ -13944,7 +13944,7 @@
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="19">
         <v>23</v>
       </c>
@@ -14064,7 +14064,7 @@
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="19">
         <v>24</v>
       </c>
@@ -14184,7 +14184,7 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="19">
         <v>25</v>
       </c>
@@ -14304,7 +14304,7 @@
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A113" s="50"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="19">
         <v>26</v>
       </c>
@@ -14424,7 +14424,7 @@
       </c>
     </row>
     <row r="114" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="51"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="20">
         <v>27</v>
       </c>
@@ -14545,15 +14545,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A59:A86"/>
     <mergeCell ref="A87:A114"/>
     <mergeCell ref="AK1:AL1"/>
@@ -14570,6 +14561,15 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14628,28 +14628,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -14961,107 +14961,107 @@
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
-      <c r="B9" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="59"/>
+      <c r="B9" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="62"/>
       <c r="D9" s="55" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="55"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="55"/>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="59"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="55"/>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="62"/>
       <c r="P9" s="55" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="55"/>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="59"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="55" t="s">
         <v>16</v>
       </c>
       <c r="U9" s="55"/>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="62"/>
       <c r="X9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="Y9" s="55"/>
-      <c r="Z9" s="59" t="s">
+      <c r="Z9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="62"/>
       <c r="AB9" s="55" t="s">
         <v>20</v>
       </c>
       <c r="AC9" s="55"/>
-      <c r="AD9" s="59" t="s">
+      <c r="AD9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AE9" s="59"/>
+      <c r="AE9" s="62"/>
       <c r="AF9" s="55" t="s">
         <v>22</v>
       </c>
       <c r="AG9" s="55"/>
-      <c r="AH9" s="59" t="s">
+      <c r="AH9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="59"/>
+      <c r="AI9" s="62"/>
       <c r="AJ9" s="55" t="s">
         <v>24</v>
       </c>
       <c r="AK9" s="55"/>
-      <c r="AL9" s="59" t="s">
+      <c r="AL9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="60"/>
+      <c r="AM9" s="63"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -15967,16 +15967,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
     <mergeCell ref="AF9:AG9"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AJ9:AK9"/>
@@ -15988,6 +15978,16 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Compiled Results.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Compiled Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21480" windowHeight="10050"/>
+    <workbookView xWindow="10590" yWindow="-135" windowWidth="21480" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Corner Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="34">
   <si>
     <t>Result</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>Automated Inspection</t>
   </si>
+  <si>
+    <t>SMOTE with AD Noise</t>
+  </si>
+  <si>
+    <t>SMOTE_AD</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -364,12 +370,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -495,11 +514,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -509,6 +525,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,144 +864,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="49" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="49" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="s">
+      <c r="R1" s="53"/>
+      <c r="S1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="49" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50" t="s">
+      <c r="V1" s="53"/>
+      <c r="W1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="49" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="50" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="54"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="15">
@@ -1218,7 +1240,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -1338,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="15">
         <v>2</v>
       </c>
@@ -1458,7 +1480,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -1578,7 +1600,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="15">
         <v>4</v>
       </c>
@@ -1698,7 +1720,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="15">
         <v>5</v>
       </c>
@@ -1818,7 +1840,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="15">
         <v>6</v>
       </c>
@@ -1938,7 +1960,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="15">
         <v>7</v>
       </c>
@@ -2058,7 +2080,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="15">
         <v>8</v>
       </c>
@@ -2178,7 +2200,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="15">
         <v>9</v>
       </c>
@@ -2298,7 +2320,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15">
         <v>10</v>
       </c>
@@ -2418,7 +2440,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="15">
         <v>11</v>
       </c>
@@ -2538,7 +2560,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="15">
         <v>12</v>
       </c>
@@ -2658,7 +2680,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="15">
         <v>13</v>
       </c>
@@ -2778,7 +2800,7 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="15">
         <v>14</v>
       </c>
@@ -2898,7 +2920,7 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="15">
         <v>15</v>
       </c>
@@ -3018,7 +3040,7 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="15">
         <v>16</v>
       </c>
@@ -3138,7 +3160,7 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="15">
         <v>17</v>
       </c>
@@ -3258,7 +3280,7 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="15">
         <v>18</v>
       </c>
@@ -3378,7 +3400,7 @@
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15">
         <v>19</v>
       </c>
@@ -3498,7 +3520,7 @@
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15">
         <v>20</v>
       </c>
@@ -3618,7 +3640,7 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15">
         <v>21</v>
       </c>
@@ -3738,7 +3760,7 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15">
         <v>22</v>
       </c>
@@ -3858,7 +3880,7 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="15">
         <v>23</v>
       </c>
@@ -3978,7 +4000,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15">
         <v>24</v>
       </c>
@@ -4098,7 +4120,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="15">
         <v>25</v>
       </c>
@@ -4218,7 +4240,7 @@
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15">
         <v>26</v>
       </c>
@@ -4338,7 +4360,7 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="16">
         <v>27</v>
       </c>
@@ -4458,7 +4480,7 @@
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="17">
@@ -4580,7 +4602,7 @@
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="15">
         <v>1</v>
       </c>
@@ -4700,7 +4722,7 @@
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="15">
         <v>2</v>
       </c>
@@ -4820,7 +4842,7 @@
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="15">
         <v>3</v>
       </c>
@@ -4940,7 +4962,7 @@
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="15">
         <v>4</v>
       </c>
@@ -5060,7 +5082,7 @@
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="15">
         <v>5</v>
       </c>
@@ -5180,7 +5202,7 @@
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="15">
         <v>6</v>
       </c>
@@ -5300,7 +5322,7 @@
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="15">
         <v>7</v>
       </c>
@@ -5420,7 +5442,7 @@
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="15">
         <v>8</v>
       </c>
@@ -5540,7 +5562,7 @@
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="15">
         <v>9</v>
       </c>
@@ -5660,7 +5682,7 @@
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="15">
         <v>10</v>
       </c>
@@ -5780,7 +5802,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="15">
         <v>11</v>
       </c>
@@ -5900,7 +5922,7 @@
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="15">
         <v>12</v>
       </c>
@@ -6020,7 +6042,7 @@
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="15">
         <v>13</v>
       </c>
@@ -6140,7 +6162,7 @@
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="15">
         <v>14</v>
       </c>
@@ -6260,7 +6282,7 @@
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="15">
         <v>15</v>
       </c>
@@ -6380,7 +6402,7 @@
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="15">
         <v>16</v>
       </c>
@@ -6500,7 +6522,7 @@
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="15">
         <v>17</v>
       </c>
@@ -6620,7 +6642,7 @@
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="15">
         <v>18</v>
       </c>
@@ -6740,7 +6762,7 @@
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="15">
         <v>19</v>
       </c>
@@ -6860,7 +6882,7 @@
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="15">
         <v>20</v>
       </c>
@@ -6980,7 +7002,7 @@
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="15">
         <v>21</v>
       </c>
@@ -7100,7 +7122,7 @@
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="15">
         <v>22</v>
       </c>
@@ -7220,7 +7242,7 @@
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="15">
         <v>23</v>
       </c>
@@ -7340,7 +7362,7 @@
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="15">
         <v>24</v>
       </c>
@@ -7460,7 +7482,7 @@
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="15">
         <v>25</v>
       </c>
@@ -7580,7 +7602,7 @@
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="15">
         <v>26</v>
       </c>
@@ -7700,7 +7722,7 @@
       </c>
     </row>
     <row r="58" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="16">
         <v>27</v>
       </c>
@@ -7820,7 +7842,7 @@
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="17">
@@ -7942,7 +7964,7 @@
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="15">
         <v>1</v>
       </c>
@@ -8062,7 +8084,7 @@
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="15">
         <v>2</v>
       </c>
@@ -8182,7 +8204,7 @@
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="15">
         <v>3</v>
       </c>
@@ -8302,7 +8324,7 @@
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="15">
         <v>4</v>
       </c>
@@ -8422,7 +8444,7 @@
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="15">
         <v>5</v>
       </c>
@@ -8542,7 +8564,7 @@
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="15">
         <v>6</v>
       </c>
@@ -8662,7 +8684,7 @@
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="15">
         <v>7</v>
       </c>
@@ -8782,7 +8804,7 @@
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="15">
         <v>8</v>
       </c>
@@ -8902,7 +8924,7 @@
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="15">
         <v>9</v>
       </c>
@@ -9022,7 +9044,7 @@
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="15">
         <v>10</v>
       </c>
@@ -9142,7 +9164,7 @@
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="15">
         <v>11</v>
       </c>
@@ -9262,7 +9284,7 @@
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="15">
         <v>12</v>
       </c>
@@ -9382,7 +9404,7 @@
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="15">
         <v>13</v>
       </c>
@@ -9502,7 +9524,7 @@
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="15">
         <v>14</v>
       </c>
@@ -9622,7 +9644,7 @@
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="15">
         <v>15</v>
       </c>
@@ -9742,7 +9764,7 @@
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="15">
         <v>16</v>
       </c>
@@ -9862,7 +9884,7 @@
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="15">
         <v>17</v>
       </c>
@@ -9982,7 +10004,7 @@
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="15">
         <v>18</v>
       </c>
@@ -10102,7 +10124,7 @@
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="15">
         <v>19</v>
       </c>
@@ -10222,7 +10244,7 @@
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="15">
         <v>20</v>
       </c>
@@ -10342,7 +10364,7 @@
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="15">
         <v>21</v>
       </c>
@@ -10462,7 +10484,7 @@
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="15">
         <v>22</v>
       </c>
@@ -10582,7 +10604,7 @@
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="15">
         <v>23</v>
       </c>
@@ -10702,7 +10724,7 @@
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="15">
         <v>24</v>
       </c>
@@ -10822,7 +10844,7 @@
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="15">
         <v>25</v>
       </c>
@@ -10942,7 +10964,7 @@
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="15">
         <v>26</v>
       </c>
@@ -11062,7 +11084,7 @@
       </c>
     </row>
     <row r="86" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="16">
         <v>27</v>
       </c>
@@ -11182,7 +11204,7 @@
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="18">
@@ -11304,7 +11326,7 @@
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="19">
         <v>1</v>
       </c>
@@ -11424,7 +11446,7 @@
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="19">
         <v>2</v>
       </c>
@@ -11544,7 +11566,7 @@
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="19">
         <v>3</v>
       </c>
@@ -11664,7 +11686,7 @@
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="19">
         <v>4</v>
       </c>
@@ -11784,7 +11806,7 @@
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="19">
         <v>5</v>
       </c>
@@ -11904,7 +11926,7 @@
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A93" s="52"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="19">
         <v>6</v>
       </c>
@@ -12024,7 +12046,7 @@
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="19">
         <v>7</v>
       </c>
@@ -12144,7 +12166,7 @@
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="19">
         <v>8</v>
       </c>
@@ -12264,7 +12286,7 @@
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="19">
         <v>9</v>
       </c>
@@ -12384,7 +12406,7 @@
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="19">
         <v>10</v>
       </c>
@@ -12504,7 +12526,7 @@
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="19">
         <v>11</v>
       </c>
@@ -12624,7 +12646,7 @@
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="19">
         <v>12</v>
       </c>
@@ -12744,7 +12766,7 @@
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="19">
         <v>13</v>
       </c>
@@ -12864,7 +12886,7 @@
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="19">
         <v>14</v>
       </c>
@@ -12984,7 +13006,7 @@
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="19">
         <v>15</v>
       </c>
@@ -13104,7 +13126,7 @@
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="19">
         <v>16</v>
       </c>
@@ -13224,7 +13246,7 @@
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="19">
         <v>17</v>
       </c>
@@ -13344,7 +13366,7 @@
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="19">
         <v>18</v>
       </c>
@@ -13464,7 +13486,7 @@
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="19">
         <v>19</v>
       </c>
@@ -13584,7 +13606,7 @@
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="19">
         <v>20</v>
       </c>
@@ -13704,7 +13726,7 @@
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="19">
         <v>21</v>
       </c>
@@ -13824,7 +13846,7 @@
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="19">
         <v>22</v>
       </c>
@@ -13944,7 +13966,7 @@
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="19">
         <v>23</v>
       </c>
@@ -14064,7 +14086,7 @@
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="19">
         <v>24</v>
       </c>
@@ -14184,7 +14206,7 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="19">
         <v>25</v>
       </c>
@@ -14304,7 +14326,7 @@
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="19">
         <v>26</v>
       </c>
@@ -14424,7 +14446,7 @@
       </c>
     </row>
     <row r="114" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="53"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="20">
         <v>27</v>
       </c>
@@ -14543,16 +14565,3375 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A115" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="17">
+        <v>0</v>
+      </c>
+      <c r="C115" s="23">
+        <v>24100</v>
+      </c>
+      <c r="D115" s="22">
+        <v>0.99979257415473965</v>
+      </c>
+      <c r="E115" s="6">
+        <v>3252</v>
+      </c>
+      <c r="F115" s="35">
+        <v>1</v>
+      </c>
+      <c r="G115" s="23">
+        <v>203</v>
+      </c>
+      <c r="H115" s="22">
+        <v>1</v>
+      </c>
+      <c r="I115" s="6">
+        <v>91</v>
+      </c>
+      <c r="J115" s="35">
+        <v>1</v>
+      </c>
+      <c r="K115" s="23">
+        <v>0</v>
+      </c>
+      <c r="L115" s="22">
+        <v>0</v>
+      </c>
+      <c r="M115" s="6">
+        <v>0</v>
+      </c>
+      <c r="N115" s="35">
+        <v>0</v>
+      </c>
+      <c r="O115" s="23">
+        <v>0</v>
+      </c>
+      <c r="P115" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>0</v>
+      </c>
+      <c r="R115" s="35">
+        <v>0</v>
+      </c>
+      <c r="S115" s="23">
+        <v>0</v>
+      </c>
+      <c r="T115" s="22">
+        <v>0</v>
+      </c>
+      <c r="U115" s="6">
+        <v>0</v>
+      </c>
+      <c r="V115" s="35">
+        <v>0</v>
+      </c>
+      <c r="W115" s="23">
+        <v>0</v>
+      </c>
+      <c r="X115" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK115" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM115" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN115" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="15">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="29">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="29">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <v>116</v>
+      </c>
+      <c r="L116" s="4">
+        <v>1</v>
+      </c>
+      <c r="M116" s="7">
+        <v>110</v>
+      </c>
+      <c r="N116" s="29">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>243</v>
+      </c>
+      <c r="R116" s="29">
+        <v>1</v>
+      </c>
+      <c r="S116" s="3">
+        <v>536</v>
+      </c>
+      <c r="T116" s="4">
+        <v>0.9981378026070763</v>
+      </c>
+      <c r="U116" s="7">
+        <v>3200</v>
+      </c>
+      <c r="V116" s="29">
+        <v>0.999687597625742</v>
+      </c>
+      <c r="W116" s="3">
+        <v>79</v>
+      </c>
+      <c r="X116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="7">
+        <v>29</v>
+      </c>
+      <c r="Z116" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>29</v>
+      </c>
+      <c r="AB116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="7">
+        <v>31</v>
+      </c>
+      <c r="AD116" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE116" s="3">
+        <v>7</v>
+      </c>
+      <c r="AF116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG116" s="7">
+        <v>464</v>
+      </c>
+      <c r="AH116" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI116" s="3">
+        <v>154</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK116" s="7">
+        <v>41</v>
+      </c>
+      <c r="AL116" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM116" s="3">
+        <v>57</v>
+      </c>
+      <c r="AN116" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A117" s="51"/>
+      <c r="B117" s="15">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="29">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="29">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="7">
+        <v>0</v>
+      </c>
+      <c r="N117" s="29">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>0</v>
+      </c>
+      <c r="R117" s="29">
+        <v>0</v>
+      </c>
+      <c r="S117" s="3">
+        <v>0</v>
+      </c>
+      <c r="T117" s="4">
+        <v>0</v>
+      </c>
+      <c r="U117" s="7">
+        <v>0</v>
+      </c>
+      <c r="V117" s="29">
+        <v>0</v>
+      </c>
+      <c r="W117" s="3">
+        <v>0</v>
+      </c>
+      <c r="X117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK117" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN117" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A118" s="51"/>
+      <c r="B118" s="15">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
+      <c r="F118" s="29">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="29">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0</v>
+      </c>
+      <c r="M118" s="7">
+        <v>0</v>
+      </c>
+      <c r="N118" s="29">
+        <v>0</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>0</v>
+      </c>
+      <c r="R118" s="29">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3">
+        <v>0</v>
+      </c>
+      <c r="T118" s="4">
+        <v>0</v>
+      </c>
+      <c r="U118" s="7">
+        <v>0</v>
+      </c>
+      <c r="V118" s="29">
+        <v>0</v>
+      </c>
+      <c r="W118" s="3">
+        <v>0</v>
+      </c>
+      <c r="X118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK118" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM118" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN118" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A119" s="51"/>
+      <c r="B119" s="15">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4">
+        <v>2.0742584526031943E-4</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+      <c r="F119" s="29">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0</v>
+      </c>
+      <c r="J119" s="29">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="L119" s="4">
+        <v>0</v>
+      </c>
+      <c r="M119" s="7">
+        <v>0</v>
+      </c>
+      <c r="N119" s="29">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="7">
+        <v>0</v>
+      </c>
+      <c r="R119" s="29">
+        <v>0</v>
+      </c>
+      <c r="S119" s="3">
+        <v>0</v>
+      </c>
+      <c r="T119" s="4">
+        <v>0</v>
+      </c>
+      <c r="U119" s="7">
+        <v>0</v>
+      </c>
+      <c r="V119" s="29">
+        <v>0</v>
+      </c>
+      <c r="W119" s="3">
+        <v>0</v>
+      </c>
+      <c r="X119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM119" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN119" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
+      <c r="B120" s="15">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
+      <c r="F120" s="29">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="29">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
+      </c>
+      <c r="L120" s="4">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7">
+        <v>0</v>
+      </c>
+      <c r="N120" s="29">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="7">
+        <v>0</v>
+      </c>
+      <c r="R120" s="29">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3">
+        <v>0</v>
+      </c>
+      <c r="T120" s="4">
+        <v>0</v>
+      </c>
+      <c r="U120" s="7">
+        <v>0</v>
+      </c>
+      <c r="V120" s="29">
+        <v>0</v>
+      </c>
+      <c r="W120" s="3">
+        <v>0</v>
+      </c>
+      <c r="X120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM120" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN120" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A121" s="51"/>
+      <c r="B121" s="15">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
+      <c r="F121" s="29">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="29">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
+      </c>
+      <c r="L121" s="4">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7">
+        <v>0</v>
+      </c>
+      <c r="N121" s="29">
+        <v>0</v>
+      </c>
+      <c r="O121" s="3">
+        <v>0</v>
+      </c>
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>0</v>
+      </c>
+      <c r="R121" s="29">
+        <v>0</v>
+      </c>
+      <c r="S121" s="3">
+        <v>0</v>
+      </c>
+      <c r="T121" s="4">
+        <v>0</v>
+      </c>
+      <c r="U121" s="7">
+        <v>1</v>
+      </c>
+      <c r="V121" s="29">
+        <v>3.1240237425804435E-4</v>
+      </c>
+      <c r="W121" s="3">
+        <v>0</v>
+      </c>
+      <c r="X121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ121" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK121" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM121" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN121" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
+      <c r="B122" s="15">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0</v>
+      </c>
+      <c r="F122" s="29">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0</v>
+      </c>
+      <c r="J122" s="29">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0</v>
+      </c>
+      <c r="M122" s="7">
+        <v>0</v>
+      </c>
+      <c r="N122" s="29">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3">
+        <v>0</v>
+      </c>
+      <c r="P122" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>0</v>
+      </c>
+      <c r="R122" s="29">
+        <v>0</v>
+      </c>
+      <c r="S122" s="3">
+        <v>1</v>
+      </c>
+      <c r="T122" s="4">
+        <v>1.8621973929236499E-3</v>
+      </c>
+      <c r="U122" s="7">
+        <v>0</v>
+      </c>
+      <c r="V122" s="29">
+        <v>0</v>
+      </c>
+      <c r="W122" s="3">
+        <v>0</v>
+      </c>
+      <c r="X122" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK122" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM122" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN122" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A123" s="51"/>
+      <c r="B123" s="15">
+        <v>8</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0</v>
+      </c>
+      <c r="F123" s="29">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0</v>
+      </c>
+      <c r="J123" s="29">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="7">
+        <v>0</v>
+      </c>
+      <c r="N123" s="29">
+        <v>0</v>
+      </c>
+      <c r="O123" s="3">
+        <v>0</v>
+      </c>
+      <c r="P123" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>0</v>
+      </c>
+      <c r="R123" s="29">
+        <v>0</v>
+      </c>
+      <c r="S123" s="3">
+        <v>0</v>
+      </c>
+      <c r="T123" s="4">
+        <v>0</v>
+      </c>
+      <c r="U123" s="7">
+        <v>0</v>
+      </c>
+      <c r="V123" s="29">
+        <v>0</v>
+      </c>
+      <c r="W123" s="3">
+        <v>0</v>
+      </c>
+      <c r="X123" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ123" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM123" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN123" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
+      <c r="B124" s="15">
+        <v>9</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0</v>
+      </c>
+      <c r="F124" s="29">
+        <v>0</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0</v>
+      </c>
+      <c r="J124" s="29">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0</v>
+      </c>
+      <c r="M124" s="7">
+        <v>0</v>
+      </c>
+      <c r="N124" s="29">
+        <v>0</v>
+      </c>
+      <c r="O124" s="3">
+        <v>0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>0</v>
+      </c>
+      <c r="R124" s="29">
+        <v>0</v>
+      </c>
+      <c r="S124" s="3">
+        <v>0</v>
+      </c>
+      <c r="T124" s="4">
+        <v>0</v>
+      </c>
+      <c r="U124" s="7">
+        <v>0</v>
+      </c>
+      <c r="V124" s="29">
+        <v>0</v>
+      </c>
+      <c r="W124" s="3">
+        <v>0</v>
+      </c>
+      <c r="X124" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM124" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN124" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A125" s="51"/>
+      <c r="B125" s="15">
+        <v>10</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0</v>
+      </c>
+      <c r="F125" s="29">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="7">
+        <v>0</v>
+      </c>
+      <c r="J125" s="29">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0</v>
+      </c>
+      <c r="M125" s="7">
+        <v>0</v>
+      </c>
+      <c r="N125" s="29">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3">
+        <v>0</v>
+      </c>
+      <c r="P125" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="7">
+        <v>0</v>
+      </c>
+      <c r="R125" s="29">
+        <v>0</v>
+      </c>
+      <c r="S125" s="3">
+        <v>0</v>
+      </c>
+      <c r="T125" s="4">
+        <v>0</v>
+      </c>
+      <c r="U125" s="7">
+        <v>0</v>
+      </c>
+      <c r="V125" s="29">
+        <v>0</v>
+      </c>
+      <c r="W125" s="3">
+        <v>0</v>
+      </c>
+      <c r="X125" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK125" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM125" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN125" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
+      <c r="B126" s="15">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0</v>
+      </c>
+      <c r="F126" s="29">
+        <v>0</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
+      <c r="J126" s="29">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0</v>
+      </c>
+      <c r="M126" s="7">
+        <v>0</v>
+      </c>
+      <c r="N126" s="29">
+        <v>0</v>
+      </c>
+      <c r="O126" s="3">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>0</v>
+      </c>
+      <c r="R126" s="29">
+        <v>0</v>
+      </c>
+      <c r="S126" s="3">
+        <v>0</v>
+      </c>
+      <c r="T126" s="4">
+        <v>0</v>
+      </c>
+      <c r="U126" s="7">
+        <v>0</v>
+      </c>
+      <c r="V126" s="29">
+        <v>0</v>
+      </c>
+      <c r="W126" s="3">
+        <v>0</v>
+      </c>
+      <c r="X126" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK126" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN126" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A127" s="51"/>
+      <c r="B127" s="15">
+        <v>12</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0</v>
+      </c>
+      <c r="F127" s="29">
+        <v>0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+      <c r="J127" s="29">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0</v>
+      </c>
+      <c r="M127" s="7">
+        <v>0</v>
+      </c>
+      <c r="N127" s="29">
+        <v>0</v>
+      </c>
+      <c r="O127" s="3">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="7">
+        <v>0</v>
+      </c>
+      <c r="R127" s="29">
+        <v>0</v>
+      </c>
+      <c r="S127" s="3">
+        <v>0</v>
+      </c>
+      <c r="T127" s="4">
+        <v>0</v>
+      </c>
+      <c r="U127" s="7">
+        <v>0</v>
+      </c>
+      <c r="V127" s="29">
+        <v>0</v>
+      </c>
+      <c r="W127" s="3">
+        <v>0</v>
+      </c>
+      <c r="X127" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ127" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK127" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM127" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN127" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A128" s="51"/>
+      <c r="B128" s="15">
+        <v>13</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0</v>
+      </c>
+      <c r="F128" s="29">
+        <v>0</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="7">
+        <v>0</v>
+      </c>
+      <c r="J128" s="29">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0</v>
+      </c>
+      <c r="M128" s="7">
+        <v>0</v>
+      </c>
+      <c r="N128" s="29">
+        <v>0</v>
+      </c>
+      <c r="O128" s="3">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="7">
+        <v>0</v>
+      </c>
+      <c r="R128" s="29">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3">
+        <v>0</v>
+      </c>
+      <c r="T128" s="4">
+        <v>0</v>
+      </c>
+      <c r="U128" s="7">
+        <v>0</v>
+      </c>
+      <c r="V128" s="29">
+        <v>0</v>
+      </c>
+      <c r="W128" s="3">
+        <v>0</v>
+      </c>
+      <c r="X128" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM128" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN128" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A129" s="51"/>
+      <c r="B129" s="15">
+        <v>14</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0</v>
+      </c>
+      <c r="F129" s="29">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="J129" s="29">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0</v>
+      </c>
+      <c r="M129" s="7">
+        <v>0</v>
+      </c>
+      <c r="N129" s="29">
+        <v>0</v>
+      </c>
+      <c r="O129" s="3">
+        <v>0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="7">
+        <v>0</v>
+      </c>
+      <c r="R129" s="29">
+        <v>0</v>
+      </c>
+      <c r="S129" s="3">
+        <v>0</v>
+      </c>
+      <c r="T129" s="4">
+        <v>0</v>
+      </c>
+      <c r="U129" s="7">
+        <v>0</v>
+      </c>
+      <c r="V129" s="29">
+        <v>0</v>
+      </c>
+      <c r="W129" s="3">
+        <v>0</v>
+      </c>
+      <c r="X129" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ129" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM129" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN129" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A130" s="51"/>
+      <c r="B130" s="15">
+        <v>15</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0</v>
+      </c>
+      <c r="F130" s="29">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0</v>
+      </c>
+      <c r="J130" s="29">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0</v>
+      </c>
+      <c r="M130" s="7">
+        <v>0</v>
+      </c>
+      <c r="N130" s="29">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="7">
+        <v>0</v>
+      </c>
+      <c r="R130" s="29">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3">
+        <v>0</v>
+      </c>
+      <c r="T130" s="4">
+        <v>0</v>
+      </c>
+      <c r="U130" s="7">
+        <v>0</v>
+      </c>
+      <c r="V130" s="29">
+        <v>0</v>
+      </c>
+      <c r="W130" s="3">
+        <v>0</v>
+      </c>
+      <c r="X130" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM130" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN130" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A131" s="51"/>
+      <c r="B131" s="15">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0</v>
+      </c>
+      <c r="F131" s="29">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
+      <c r="J131" s="29">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0</v>
+      </c>
+      <c r="M131" s="7">
+        <v>0</v>
+      </c>
+      <c r="N131" s="29">
+        <v>0</v>
+      </c>
+      <c r="O131" s="3">
+        <v>0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="7">
+        <v>0</v>
+      </c>
+      <c r="R131" s="29">
+        <v>0</v>
+      </c>
+      <c r="S131" s="3">
+        <v>0</v>
+      </c>
+      <c r="T131" s="4">
+        <v>0</v>
+      </c>
+      <c r="U131" s="7">
+        <v>0</v>
+      </c>
+      <c r="V131" s="29">
+        <v>0</v>
+      </c>
+      <c r="W131" s="3">
+        <v>0</v>
+      </c>
+      <c r="X131" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ131" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM131" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN131" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A132" s="51"/>
+      <c r="B132" s="15">
+        <v>17</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0</v>
+      </c>
+      <c r="F132" s="29">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0</v>
+      </c>
+      <c r="J132" s="29">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0</v>
+      </c>
+      <c r="M132" s="7">
+        <v>0</v>
+      </c>
+      <c r="N132" s="29">
+        <v>0</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0</v>
+      </c>
+      <c r="P132" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="7">
+        <v>0</v>
+      </c>
+      <c r="R132" s="29">
+        <v>0</v>
+      </c>
+      <c r="S132" s="3">
+        <v>0</v>
+      </c>
+      <c r="T132" s="4">
+        <v>0</v>
+      </c>
+      <c r="U132" s="7">
+        <v>0</v>
+      </c>
+      <c r="V132" s="29">
+        <v>0</v>
+      </c>
+      <c r="W132" s="3">
+        <v>0</v>
+      </c>
+      <c r="X132" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM132" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN132" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A133" s="51"/>
+      <c r="B133" s="15">
+        <v>18</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0</v>
+      </c>
+      <c r="F133" s="29">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0</v>
+      </c>
+      <c r="J133" s="29">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0</v>
+      </c>
+      <c r="M133" s="7">
+        <v>0</v>
+      </c>
+      <c r="N133" s="29">
+        <v>0</v>
+      </c>
+      <c r="O133" s="3">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="7">
+        <v>0</v>
+      </c>
+      <c r="R133" s="29">
+        <v>0</v>
+      </c>
+      <c r="S133" s="3">
+        <v>0</v>
+      </c>
+      <c r="T133" s="4">
+        <v>0</v>
+      </c>
+      <c r="U133" s="7">
+        <v>0</v>
+      </c>
+      <c r="V133" s="29">
+        <v>0</v>
+      </c>
+      <c r="W133" s="3">
+        <v>0</v>
+      </c>
+      <c r="X133" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A134" s="51"/>
+      <c r="B134" s="15">
+        <v>19</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0</v>
+      </c>
+      <c r="F134" s="29">
+        <v>0</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0</v>
+      </c>
+      <c r="J134" s="29">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0</v>
+      </c>
+      <c r="M134" s="7">
+        <v>0</v>
+      </c>
+      <c r="N134" s="29">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3">
+        <v>0</v>
+      </c>
+      <c r="P134" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="7">
+        <v>0</v>
+      </c>
+      <c r="R134" s="29">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3">
+        <v>0</v>
+      </c>
+      <c r="T134" s="4">
+        <v>0</v>
+      </c>
+      <c r="U134" s="7">
+        <v>0</v>
+      </c>
+      <c r="V134" s="29">
+        <v>0</v>
+      </c>
+      <c r="W134" s="3">
+        <v>0</v>
+      </c>
+      <c r="X134" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM134" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN134" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A135" s="51"/>
+      <c r="B135" s="15">
+        <v>20</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="7">
+        <v>0</v>
+      </c>
+      <c r="F135" s="29">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="J135" s="29">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0</v>
+      </c>
+      <c r="M135" s="7">
+        <v>0</v>
+      </c>
+      <c r="N135" s="29">
+        <v>0</v>
+      </c>
+      <c r="O135" s="3">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="7">
+        <v>0</v>
+      </c>
+      <c r="R135" s="29">
+        <v>0</v>
+      </c>
+      <c r="S135" s="3">
+        <v>0</v>
+      </c>
+      <c r="T135" s="4">
+        <v>0</v>
+      </c>
+      <c r="U135" s="7">
+        <v>0</v>
+      </c>
+      <c r="V135" s="29">
+        <v>0</v>
+      </c>
+      <c r="W135" s="3">
+        <v>0</v>
+      </c>
+      <c r="X135" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM135" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN135" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A136" s="51"/>
+      <c r="B136" s="15">
+        <v>21</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0</v>
+      </c>
+      <c r="F136" s="29">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="7">
+        <v>0</v>
+      </c>
+      <c r="J136" s="29">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0</v>
+      </c>
+      <c r="M136" s="7">
+        <v>0</v>
+      </c>
+      <c r="N136" s="29">
+        <v>0</v>
+      </c>
+      <c r="O136" s="3">
+        <v>0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="7">
+        <v>0</v>
+      </c>
+      <c r="R136" s="29">
+        <v>0</v>
+      </c>
+      <c r="S136" s="3">
+        <v>0</v>
+      </c>
+      <c r="T136" s="4">
+        <v>0</v>
+      </c>
+      <c r="U136" s="7">
+        <v>0</v>
+      </c>
+      <c r="V136" s="29">
+        <v>0</v>
+      </c>
+      <c r="W136" s="3">
+        <v>0</v>
+      </c>
+      <c r="X136" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ136" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK136" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM136" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN136" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="15">
+        <v>22</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0</v>
+      </c>
+      <c r="F137" s="29">
+        <v>0</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="7">
+        <v>0</v>
+      </c>
+      <c r="J137" s="29">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
+      <c r="M137" s="7">
+        <v>0</v>
+      </c>
+      <c r="N137" s="29">
+        <v>0</v>
+      </c>
+      <c r="O137" s="3">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="7">
+        <v>0</v>
+      </c>
+      <c r="R137" s="29">
+        <v>0</v>
+      </c>
+      <c r="S137" s="3">
+        <v>0</v>
+      </c>
+      <c r="T137" s="4">
+        <v>0</v>
+      </c>
+      <c r="U137" s="7">
+        <v>0</v>
+      </c>
+      <c r="V137" s="29">
+        <v>0</v>
+      </c>
+      <c r="W137" s="3">
+        <v>0</v>
+      </c>
+      <c r="X137" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF137" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ137" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM137" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN137" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A138" s="51"/>
+      <c r="B138" s="15">
+        <v>23</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="7">
+        <v>0</v>
+      </c>
+      <c r="F138" s="29">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="7">
+        <v>0</v>
+      </c>
+      <c r="J138" s="29">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0</v>
+      </c>
+      <c r="M138" s="7">
+        <v>0</v>
+      </c>
+      <c r="N138" s="29">
+        <v>0</v>
+      </c>
+      <c r="O138" s="3">
+        <v>0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="7">
+        <v>0</v>
+      </c>
+      <c r="R138" s="29">
+        <v>0</v>
+      </c>
+      <c r="S138" s="3">
+        <v>0</v>
+      </c>
+      <c r="T138" s="4">
+        <v>0</v>
+      </c>
+      <c r="U138" s="7">
+        <v>0</v>
+      </c>
+      <c r="V138" s="29">
+        <v>0</v>
+      </c>
+      <c r="W138" s="3">
+        <v>0</v>
+      </c>
+      <c r="X138" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG138" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI138" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ138" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK138" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM138" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN138" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A139" s="51"/>
+      <c r="B139" s="15">
+        <v>24</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+      <c r="E139" s="7">
+        <v>0</v>
+      </c>
+      <c r="F139" s="29">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="29">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0</v>
+      </c>
+      <c r="M139" s="7">
+        <v>0</v>
+      </c>
+      <c r="N139" s="29">
+        <v>0</v>
+      </c>
+      <c r="O139" s="3">
+        <v>0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="7">
+        <v>0</v>
+      </c>
+      <c r="R139" s="29">
+        <v>0</v>
+      </c>
+      <c r="S139" s="3">
+        <v>0</v>
+      </c>
+      <c r="T139" s="4">
+        <v>0</v>
+      </c>
+      <c r="U139" s="7">
+        <v>0</v>
+      </c>
+      <c r="V139" s="29">
+        <v>0</v>
+      </c>
+      <c r="W139" s="3">
+        <v>0</v>
+      </c>
+      <c r="X139" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD139" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG139" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH139" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI139" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK139" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM139" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN139" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A140" s="51"/>
+      <c r="B140" s="15">
+        <v>25</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0</v>
+      </c>
+      <c r="F140" s="29">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
+      <c r="J140" s="29">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0</v>
+      </c>
+      <c r="M140" s="7">
+        <v>0</v>
+      </c>
+      <c r="N140" s="29">
+        <v>0</v>
+      </c>
+      <c r="O140" s="3">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="7">
+        <v>0</v>
+      </c>
+      <c r="R140" s="29">
+        <v>0</v>
+      </c>
+      <c r="S140" s="3">
+        <v>0</v>
+      </c>
+      <c r="T140" s="4">
+        <v>0</v>
+      </c>
+      <c r="U140" s="7">
+        <v>0</v>
+      </c>
+      <c r="V140" s="29">
+        <v>0</v>
+      </c>
+      <c r="W140" s="3">
+        <v>0</v>
+      </c>
+      <c r="X140" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD140" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG140" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH140" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ140" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK140" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL140" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM140" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN140" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A141" s="51"/>
+      <c r="B141" s="15">
+        <v>26</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0</v>
+      </c>
+      <c r="F141" s="29">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="29">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0</v>
+      </c>
+      <c r="M141" s="7">
+        <v>0</v>
+      </c>
+      <c r="N141" s="29">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3">
+        <v>0</v>
+      </c>
+      <c r="P141" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="7">
+        <v>0</v>
+      </c>
+      <c r="R141" s="29">
+        <v>0</v>
+      </c>
+      <c r="S141" s="3">
+        <v>0</v>
+      </c>
+      <c r="T141" s="4">
+        <v>0</v>
+      </c>
+      <c r="U141" s="7">
+        <v>0</v>
+      </c>
+      <c r="V141" s="29">
+        <v>0</v>
+      </c>
+      <c r="W141" s="3">
+        <v>0</v>
+      </c>
+      <c r="X141" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD141" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH141" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI141" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK141" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL141" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM141" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN141" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="52"/>
+      <c r="B142" s="16">
+        <v>27</v>
+      </c>
+      <c r="C142" s="31">
+        <v>0</v>
+      </c>
+      <c r="D142" s="27">
+        <v>0</v>
+      </c>
+      <c r="E142" s="32">
+        <v>0</v>
+      </c>
+      <c r="F142" s="33">
+        <v>0</v>
+      </c>
+      <c r="G142" s="31">
+        <v>0</v>
+      </c>
+      <c r="H142" s="27">
+        <v>0</v>
+      </c>
+      <c r="I142" s="32">
+        <v>0</v>
+      </c>
+      <c r="J142" s="33">
+        <v>0</v>
+      </c>
+      <c r="K142" s="31">
+        <v>0</v>
+      </c>
+      <c r="L142" s="27">
+        <v>0</v>
+      </c>
+      <c r="M142" s="32">
+        <v>0</v>
+      </c>
+      <c r="N142" s="33">
+        <v>0</v>
+      </c>
+      <c r="O142" s="31">
+        <v>0</v>
+      </c>
+      <c r="P142" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="32">
+        <v>0</v>
+      </c>
+      <c r="R142" s="33">
+        <v>0</v>
+      </c>
+      <c r="S142" s="31">
+        <v>0</v>
+      </c>
+      <c r="T142" s="27">
+        <v>0</v>
+      </c>
+      <c r="U142" s="32">
+        <v>0</v>
+      </c>
+      <c r="V142" s="33">
+        <v>0</v>
+      </c>
+      <c r="W142" s="31">
+        <v>0</v>
+      </c>
+      <c r="X142" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH142" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI142" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM142" s="31">
+        <v>0</v>
+      </c>
+      <c r="AN142" s="34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A59:A86"/>
-    <mergeCell ref="A87:A114"/>
+  <mergeCells count="26">
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A30"/>
-    <mergeCell ref="A31:A58"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -14561,6 +17942,7 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A115:A142"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
@@ -14570,6 +17952,9 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A59:A86"/>
+    <mergeCell ref="A87:A114"/>
+    <mergeCell ref="A31:A58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14578,78 +17963,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
@@ -14897,1097 +18282,1316 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="61"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="55"/>
-      <c r="V9" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM9" s="63"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="62"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="V10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM10" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="48"/>
+      <c r="B10" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="63"/>
+      <c r="T10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="56"/>
+      <c r="V10" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="63"/>
+      <c r="X10" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="64"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <f>SUM('Corner Cases'!C3:C30)</f>
-        <v>24105</v>
-      </c>
-      <c r="C11" s="45">
-        <f>SUM('Corner Cases'!D3:D30)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM('Corner Cases'!E3:E30)</f>
-        <v>3252</v>
-      </c>
-      <c r="E11" s="45">
-        <f>SUM('Corner Cases'!F3:F30)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f>SUM('Corner Cases'!G3:G30)</f>
-        <v>203</v>
-      </c>
-      <c r="G11" s="45">
-        <f>SUM('Corner Cases'!H3:H30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="H11" s="3">
-        <f>SUM('Corner Cases'!I3:I30)</f>
-        <v>91</v>
-      </c>
-      <c r="I11" s="45">
-        <f>SUM('Corner Cases'!J3:J30)</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <f>SUM('Corner Cases'!K3:K30)</f>
-        <v>116</v>
-      </c>
-      <c r="K11" s="45">
-        <f>SUM('Corner Cases'!L3:L30)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <f>SUM('Corner Cases'!M3:M30)</f>
-        <v>110</v>
-      </c>
-      <c r="M11" s="45">
-        <f>SUM('Corner Cases'!N3:N30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N11" s="3">
-        <f>SUM('Corner Cases'!O3:O30)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="45">
-        <f>SUM('Corner Cases'!P3:P30)</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <f>SUM('Corner Cases'!Q3:Q30)</f>
-        <v>243</v>
-      </c>
-      <c r="Q11" s="45">
-        <f>SUM('Corner Cases'!R3:R30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="R11" s="3">
-        <f>SUM('Corner Cases'!S3:S30)</f>
-        <v>537</v>
-      </c>
-      <c r="S11" s="45">
-        <f>SUM('Corner Cases'!T3:T30)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T11" s="3">
-        <f>SUM('Corner Cases'!U3:U30)</f>
-        <v>3201</v>
-      </c>
-      <c r="U11" s="45">
-        <f>SUM('Corner Cases'!V3:V30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="V11" s="3">
-        <f>SUM('Corner Cases'!W3:W30)</f>
-        <v>79</v>
-      </c>
-      <c r="W11" s="45">
-        <f>SUM('Corner Cases'!X3:X30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="X11" s="3">
-        <f>SUM('Corner Cases'!Y3:Y30)</f>
+      <c r="A11" s="39"/>
+      <c r="B11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="45">
-        <f>SUM('Corner Cases'!Z3:Z30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Z11" s="3">
-        <f>SUM('Corner Cases'!AA3:AA30)</f>
+      <c r="D11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="45">
-        <f>SUM('Corner Cases'!AB3:AB30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AB11" s="3">
-        <f>SUM('Corner Cases'!AC3:AC30)</f>
-        <v>31</v>
-      </c>
-      <c r="AC11" s="45">
-        <f>SUM('Corner Cases'!AD3:AD30)</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3">
-        <f>SUM('Corner Cases'!AE3:AE30)</f>
-        <v>7</v>
-      </c>
-      <c r="AE11" s="45">
-        <f>SUM('Corner Cases'!AF3:AF30)</f>
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3">
-        <f>SUM('Corner Cases'!AG3:AG30)</f>
-        <v>464</v>
-      </c>
-      <c r="AG11" s="45">
-        <f>SUM('Corner Cases'!AH3:AH30)</f>
-        <v>1</v>
-      </c>
-      <c r="AH11" s="3">
-        <f>SUM('Corner Cases'!AI3:AI30)</f>
-        <v>154</v>
-      </c>
-      <c r="AI11" s="45">
-        <f>SUM('Corner Cases'!AJ3:AJ30)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="3">
-        <f>SUM('Corner Cases'!AK3:AK30)</f>
-        <v>41</v>
-      </c>
-      <c r="AK11" s="45">
-        <f>SUM('Corner Cases'!AL3:AL30)</f>
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3">
-        <f>SUM('Corner Cases'!AM3:AM30)</f>
-        <v>57</v>
-      </c>
-      <c r="AM11" s="47">
-        <f>SUM('Corner Cases'!AN3:AN30)</f>
-        <v>1</v>
+      <c r="F11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM11" s="46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
-        <f>SUM('Corner Cases'!C31:C58)</f>
+        <f>SUM('Corner Cases'!C3:C30)</f>
         <v>24105</v>
       </c>
       <c r="C12" s="45">
-        <f>SUM('Corner Cases'!D31:D58)</f>
+        <f>SUM('Corner Cases'!D3:D30)</f>
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM('Corner Cases'!E31:E58)</f>
+        <f>SUM('Corner Cases'!E3:E30)</f>
         <v>3252</v>
       </c>
       <c r="E12" s="45">
-        <f>SUM('Corner Cases'!F31:F58)</f>
+        <f>SUM('Corner Cases'!F3:F30)</f>
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <f>SUM('Corner Cases'!G31:G58)</f>
+        <f>SUM('Corner Cases'!G3:G30)</f>
         <v>203</v>
       </c>
       <c r="G12" s="45">
-        <f>SUM('Corner Cases'!H31:H58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!H3:H30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H12" s="3">
-        <f>SUM('Corner Cases'!I31:I58)</f>
+        <f>SUM('Corner Cases'!I3:I30)</f>
         <v>91</v>
       </c>
       <c r="I12" s="45">
-        <f>SUM('Corner Cases'!J31:J58)</f>
+        <f>SUM('Corner Cases'!J3:J30)</f>
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <f>SUM('Corner Cases'!K31:K58)</f>
+        <f>SUM('Corner Cases'!K3:K30)</f>
         <v>116</v>
       </c>
       <c r="K12" s="45">
-        <f>SUM('Corner Cases'!L31:L58)</f>
+        <f>SUM('Corner Cases'!L3:L30)</f>
         <v>1</v>
       </c>
       <c r="L12" s="3">
-        <f>SUM('Corner Cases'!M31:M58)</f>
+        <f>SUM('Corner Cases'!M3:M30)</f>
         <v>110</v>
       </c>
       <c r="M12" s="45">
-        <f>SUM('Corner Cases'!N31:N58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!N3:N30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N12" s="3">
-        <f>SUM('Corner Cases'!O31:O58)</f>
+        <f>SUM('Corner Cases'!O3:O30)</f>
         <v>1</v>
       </c>
       <c r="O12" s="45">
-        <f>SUM('Corner Cases'!P31:P58)</f>
+        <f>SUM('Corner Cases'!P3:P30)</f>
         <v>1</v>
       </c>
       <c r="P12" s="3">
-        <f>SUM('Corner Cases'!Q31:Q58)</f>
+        <f>SUM('Corner Cases'!Q3:Q30)</f>
         <v>243</v>
       </c>
       <c r="Q12" s="45">
-        <f>SUM('Corner Cases'!R31:R58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!R3:R30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R12" s="3">
-        <f>SUM('Corner Cases'!S31:S58)</f>
+        <f>SUM('Corner Cases'!S3:S30)</f>
         <v>537</v>
       </c>
       <c r="S12" s="45">
-        <f>SUM('Corner Cases'!T31:T58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!T3:T30)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="T12" s="3">
-        <f>SUM('Corner Cases'!U31:U58)</f>
+        <f>SUM('Corner Cases'!U3:U30)</f>
         <v>3201</v>
       </c>
       <c r="U12" s="45">
-        <f>SUM('Corner Cases'!V31:V58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!V3:V30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="V12" s="3">
-        <f>SUM('Corner Cases'!W31:W58)</f>
+        <f>SUM('Corner Cases'!W3:W30)</f>
         <v>79</v>
       </c>
       <c r="W12" s="45">
-        <f>SUM('Corner Cases'!X31:X58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!X3:X30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="X12" s="3">
-        <f>SUM('Corner Cases'!Y31:Y58)</f>
+        <f>SUM('Corner Cases'!Y3:Y30)</f>
         <v>29</v>
       </c>
       <c r="Y12" s="45">
-        <f>SUM('Corner Cases'!Z31:Z58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!Z3:Z30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Z12" s="3">
-        <f>SUM('Corner Cases'!AA31:AA58)</f>
+        <f>SUM('Corner Cases'!AA3:AA30)</f>
         <v>29</v>
       </c>
       <c r="AA12" s="45">
-        <f>SUM('Corner Cases'!AB31:AB58)</f>
-        <v>1</v>
+        <f>SUM('Corner Cases'!AB3:AB30)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AB12" s="3">
-        <f>SUM('Corner Cases'!AC31:AC58)</f>
+        <f>SUM('Corner Cases'!AC3:AC30)</f>
         <v>31</v>
       </c>
       <c r="AC12" s="45">
-        <f>SUM('Corner Cases'!AD31:AD58)</f>
+        <f>SUM('Corner Cases'!AD3:AD30)</f>
         <v>1</v>
       </c>
       <c r="AD12" s="3">
-        <f>SUM('Corner Cases'!AE31:AE58)</f>
+        <f>SUM('Corner Cases'!AE3:AE30)</f>
         <v>7</v>
       </c>
       <c r="AE12" s="45">
-        <f>SUM('Corner Cases'!AF31:AF58)</f>
+        <f>SUM('Corner Cases'!AF3:AF30)</f>
         <v>1</v>
       </c>
       <c r="AF12" s="3">
-        <f>SUM('Corner Cases'!AG31:AG58)</f>
+        <f>SUM('Corner Cases'!AG3:AG30)</f>
         <v>464</v>
       </c>
       <c r="AG12" s="45">
-        <f>SUM('Corner Cases'!AH31:AH58)</f>
+        <f>SUM('Corner Cases'!AH3:AH30)</f>
         <v>1</v>
       </c>
       <c r="AH12" s="3">
-        <f>SUM('Corner Cases'!AI31:AI58)</f>
+        <f>SUM('Corner Cases'!AI3:AI30)</f>
         <v>154</v>
       </c>
       <c r="AI12" s="45">
-        <f>SUM('Corner Cases'!AJ31:AJ58)</f>
+        <f>SUM('Corner Cases'!AJ3:AJ30)</f>
         <v>1</v>
       </c>
       <c r="AJ12" s="3">
-        <f>SUM('Corner Cases'!AK31:AK58)</f>
+        <f>SUM('Corner Cases'!AK3:AK30)</f>
         <v>41</v>
       </c>
       <c r="AK12" s="45">
-        <f>SUM('Corner Cases'!AL31:AL58)</f>
+        <f>SUM('Corner Cases'!AL3:AL30)</f>
         <v>1</v>
       </c>
       <c r="AL12" s="3">
-        <f>SUM('Corner Cases'!AM31:AM58)</f>
+        <f>SUM('Corner Cases'!AM3:AM30)</f>
         <v>57</v>
       </c>
       <c r="AM12" s="47">
-        <f>SUM('Corner Cases'!AN31:AN58)</f>
+        <f>SUM('Corner Cases'!AN3:AN30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <f>SUM('Corner Cases'!C31:C58)</f>
+        <v>24105</v>
+      </c>
+      <c r="C13" s="45">
+        <f>SUM('Corner Cases'!D31:D58)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM('Corner Cases'!E31:E58)</f>
+        <v>3252</v>
+      </c>
+      <c r="E13" s="45">
+        <f>SUM('Corner Cases'!F31:F58)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUM('Corner Cases'!G31:G58)</f>
+        <v>203</v>
+      </c>
+      <c r="G13" s="45">
+        <f>SUM('Corner Cases'!H31:H58)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f>SUM('Corner Cases'!I31:I58)</f>
+        <v>91</v>
+      </c>
+      <c r="I13" s="45">
+        <f>SUM('Corner Cases'!J31:J58)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f>SUM('Corner Cases'!K31:K58)</f>
+        <v>116</v>
+      </c>
+      <c r="K13" s="45">
+        <f>SUM('Corner Cases'!L31:L58)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <f>SUM('Corner Cases'!M31:M58)</f>
+        <v>110</v>
+      </c>
+      <c r="M13" s="45">
+        <f>SUM('Corner Cases'!N31:N58)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <f>SUM('Corner Cases'!O31:O58)</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="45">
+        <f>SUM('Corner Cases'!P31:P58)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <f>SUM('Corner Cases'!Q31:Q58)</f>
+        <v>243</v>
+      </c>
+      <c r="Q13" s="45">
+        <f>SUM('Corner Cases'!R31:R58)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <f>SUM('Corner Cases'!S31:S58)</f>
+        <v>537</v>
+      </c>
+      <c r="S13" s="45">
+        <f>SUM('Corner Cases'!T31:T58)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <f>SUM('Corner Cases'!U31:U58)</f>
+        <v>3201</v>
+      </c>
+      <c r="U13" s="45">
+        <f>SUM('Corner Cases'!V31:V58)</f>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <f>SUM('Corner Cases'!W31:W58)</f>
+        <v>79</v>
+      </c>
+      <c r="W13" s="45">
+        <f>SUM('Corner Cases'!X31:X58)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <f>SUM('Corner Cases'!Y31:Y58)</f>
+        <v>29</v>
+      </c>
+      <c r="Y13" s="45">
+        <f>SUM('Corner Cases'!Z31:Z58)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>SUM('Corner Cases'!AA31:AA58)</f>
+        <v>29</v>
+      </c>
+      <c r="AA13" s="45">
+        <f>SUM('Corner Cases'!AB31:AB58)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>SUM('Corner Cases'!AC31:AC58)</f>
+        <v>31</v>
+      </c>
+      <c r="AC13" s="45">
+        <f>SUM('Corner Cases'!AD31:AD58)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>SUM('Corner Cases'!AE31:AE58)</f>
         <v>7</v>
       </c>
-      <c r="B13" s="3">
-        <f>SUM('Corner Cases'!C59:C86)</f>
-        <v>24105</v>
-      </c>
-      <c r="C13" s="45">
-        <f>SUM('Corner Cases'!D59:D86)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM('Corner Cases'!E59:E86)</f>
-        <v>3252</v>
-      </c>
-      <c r="E13" s="45">
-        <f>SUM('Corner Cases'!F59:F86)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f>SUM('Corner Cases'!G59:G86)</f>
-        <v>203</v>
-      </c>
-      <c r="G13" s="45">
-        <f>SUM('Corner Cases'!H59:H86)</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <f>SUM('Corner Cases'!I59:I86)</f>
-        <v>91</v>
-      </c>
-      <c r="I13" s="45">
-        <f>SUM('Corner Cases'!J59:J86)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <f>SUM('Corner Cases'!K59:K86)</f>
-        <v>116</v>
-      </c>
-      <c r="K13" s="45">
-        <f>SUM('Corner Cases'!L59:L86)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <f>SUM('Corner Cases'!M59:M86)</f>
-        <v>110</v>
-      </c>
-      <c r="M13" s="45">
-        <f>SUM('Corner Cases'!N59:N86)</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <f>SUM('Corner Cases'!O59:O86)</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="45">
-        <f>SUM('Corner Cases'!P59:P86)</f>
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <f>SUM('Corner Cases'!Q59:Q86)</f>
-        <v>243</v>
-      </c>
-      <c r="Q13" s="45">
-        <f>SUM('Corner Cases'!R59:R86)</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <f>SUM('Corner Cases'!S59:S86)</f>
-        <v>537</v>
-      </c>
-      <c r="S13" s="45">
-        <f>SUM('Corner Cases'!T59:T86)</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <f>SUM('Corner Cases'!U59:U86)</f>
-        <v>3201</v>
-      </c>
-      <c r="U13" s="45">
-        <f>SUM('Corner Cases'!V59:V86)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <f>SUM('Corner Cases'!W59:W86)</f>
-        <v>79</v>
-      </c>
-      <c r="W13" s="45">
-        <f>SUM('Corner Cases'!X59:X86)</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="3">
-        <f>SUM('Corner Cases'!Y59:Y86)</f>
-        <v>29</v>
-      </c>
-      <c r="Y13" s="45">
-        <f>SUM('Corner Cases'!Z59:Z86)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="Z13" s="3">
-        <f>SUM('Corner Cases'!AA59:AA86)</f>
-        <v>29</v>
-      </c>
-      <c r="AA13" s="45">
-        <f>SUM('Corner Cases'!AB59:AB86)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AB13" s="3">
-        <f>SUM('Corner Cases'!AC59:AC86)</f>
-        <v>31</v>
-      </c>
-      <c r="AC13" s="45">
-        <f>SUM('Corner Cases'!AD59:AD86)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AD13" s="3">
-        <f>SUM('Corner Cases'!AE59:AE86)</f>
-        <v>7</v>
-      </c>
       <c r="AE13" s="45">
-        <f>SUM('Corner Cases'!AF59:AF86)</f>
+        <f>SUM('Corner Cases'!AF31:AF58)</f>
         <v>1</v>
       </c>
       <c r="AF13" s="3">
-        <f>SUM('Corner Cases'!AG59:AG86)</f>
+        <f>SUM('Corner Cases'!AG31:AG58)</f>
         <v>464</v>
       </c>
       <c r="AG13" s="45">
-        <f>SUM('Corner Cases'!AH59:AH86)</f>
+        <f>SUM('Corner Cases'!AH31:AH58)</f>
         <v>1</v>
       </c>
       <c r="AH13" s="3">
-        <f>SUM('Corner Cases'!AI59:AI86)</f>
+        <f>SUM('Corner Cases'!AI31:AI58)</f>
         <v>154</v>
       </c>
       <c r="AI13" s="45">
-        <f>SUM('Corner Cases'!AJ59:AJ86)</f>
-        <v>0.99999999999999989</v>
+        <f>SUM('Corner Cases'!AJ31:AJ58)</f>
+        <v>1</v>
       </c>
       <c r="AJ13" s="3">
-        <f>SUM('Corner Cases'!AK59:AK86)</f>
+        <f>SUM('Corner Cases'!AK31:AK58)</f>
         <v>41</v>
       </c>
       <c r="AK13" s="45">
-        <f>SUM('Corner Cases'!AL59:AL86)</f>
+        <f>SUM('Corner Cases'!AL31:AL58)</f>
         <v>1</v>
       </c>
       <c r="AL13" s="3">
-        <f>SUM('Corner Cases'!AM59:AM86)</f>
+        <f>SUM('Corner Cases'!AM31:AM58)</f>
         <v>57</v>
       </c>
       <c r="AM13" s="47">
-        <f>SUM('Corner Cases'!AN59:AN86)</f>
+        <f>SUM('Corner Cases'!AN31:AN58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM('Corner Cases'!C59:C86)</f>
+        <v>24105</v>
+      </c>
+      <c r="C14" s="45">
+        <f>SUM('Corner Cases'!D59:D86)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM('Corner Cases'!E59:E86)</f>
+        <v>3252</v>
+      </c>
+      <c r="E14" s="45">
+        <f>SUM('Corner Cases'!F59:F86)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f>SUM('Corner Cases'!G59:G86)</f>
+        <v>203</v>
+      </c>
+      <c r="G14" s="45">
+        <f>SUM('Corner Cases'!H59:H86)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f>SUM('Corner Cases'!I59:I86)</f>
+        <v>91</v>
+      </c>
+      <c r="I14" s="45">
+        <f>SUM('Corner Cases'!J59:J86)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f>SUM('Corner Cases'!K59:K86)</f>
+        <v>116</v>
+      </c>
+      <c r="K14" s="45">
+        <f>SUM('Corner Cases'!L59:L86)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <f>SUM('Corner Cases'!M59:M86)</f>
+        <v>110</v>
+      </c>
+      <c r="M14" s="45">
+        <f>SUM('Corner Cases'!N59:N86)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f>SUM('Corner Cases'!O59:O86)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="45">
+        <f>SUM('Corner Cases'!P59:P86)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <f>SUM('Corner Cases'!Q59:Q86)</f>
+        <v>243</v>
+      </c>
+      <c r="Q14" s="45">
+        <f>SUM('Corner Cases'!R59:R86)</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <f>SUM('Corner Cases'!S59:S86)</f>
+        <v>537</v>
+      </c>
+      <c r="S14" s="45">
+        <f>SUM('Corner Cases'!T59:T86)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <f>SUM('Corner Cases'!U59:U86)</f>
+        <v>3201</v>
+      </c>
+      <c r="U14" s="45">
+        <f>SUM('Corner Cases'!V59:V86)</f>
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <f>SUM('Corner Cases'!W59:W86)</f>
+        <v>79</v>
+      </c>
+      <c r="W14" s="45">
+        <f>SUM('Corner Cases'!X59:X86)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <f>SUM('Corner Cases'!Y59:Y86)</f>
+        <v>29</v>
+      </c>
+      <c r="Y14" s="45">
+        <f>SUM('Corner Cases'!Z59:Z86)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>SUM('Corner Cases'!AA59:AA86)</f>
+        <v>29</v>
+      </c>
+      <c r="AA14" s="45">
+        <f>SUM('Corner Cases'!AB59:AB86)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>SUM('Corner Cases'!AC59:AC86)</f>
+        <v>31</v>
+      </c>
+      <c r="AC14" s="45">
+        <f>SUM('Corner Cases'!AD59:AD86)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AD14" s="3">
+        <f>SUM('Corner Cases'!AE59:AE86)</f>
+        <v>7</v>
+      </c>
+      <c r="AE14" s="45">
+        <f>SUM('Corner Cases'!AF59:AF86)</f>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3">
+        <f>SUM('Corner Cases'!AG59:AG86)</f>
+        <v>464</v>
+      </c>
+      <c r="AG14" s="45">
+        <f>SUM('Corner Cases'!AH59:AH86)</f>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>SUM('Corner Cases'!AI59:AI86)</f>
+        <v>154</v>
+      </c>
+      <c r="AI14" s="45">
+        <f>SUM('Corner Cases'!AJ59:AJ86)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>SUM('Corner Cases'!AK59:AK86)</f>
+        <v>41</v>
+      </c>
+      <c r="AK14" s="45">
+        <f>SUM('Corner Cases'!AL59:AL86)</f>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="3">
+        <f>SUM('Corner Cases'!AM59:AM86)</f>
+        <v>57</v>
+      </c>
+      <c r="AM14" s="47">
+        <f>SUM('Corner Cases'!AN59:AN86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <f>SUM('Corner Cases'!C87:C114)</f>
         <v>24105</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C15" s="45">
         <f>SUM('Corner Cases'!D87:D114)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <f>SUM('Corner Cases'!E87:E114)</f>
         <v>3252</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E15" s="45">
         <f>SUM('Corner Cases'!F87:F114)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <f>SUM('Corner Cases'!G87:G114)</f>
         <v>203</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G15" s="45">
         <f>SUM('Corner Cases'!H87:H114)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <f>SUM('Corner Cases'!I87:I114)</f>
         <v>91</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I15" s="45">
         <f>SUM('Corner Cases'!J87:J114)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <f>SUM('Corner Cases'!K87:K114)</f>
         <v>116</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K15" s="45">
         <f>SUM('Corner Cases'!L87:L114)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="3">
         <f>SUM('Corner Cases'!M87:M114)</f>
         <v>110</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M15" s="45">
         <f>SUM('Corner Cases'!N87:N114)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="3">
         <f>SUM('Corner Cases'!O87:O114)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O15" s="45">
         <f>SUM('Corner Cases'!P87:P114)</f>
         <v>1</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="3">
         <f>SUM('Corner Cases'!Q87:Q114)</f>
         <v>243</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q15" s="45">
         <f>SUM('Corner Cases'!R87:R114)</f>
         <v>1</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R15" s="3">
         <f>SUM('Corner Cases'!S87:S114)</f>
         <v>537</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S15" s="45">
         <f>SUM('Corner Cases'!T87:T114)</f>
         <v>1</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T15" s="3">
         <f>SUM('Corner Cases'!U87:U114)</f>
         <v>3201</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U15" s="45">
         <f>SUM('Corner Cases'!V87:V114)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V15" s="3">
         <f>SUM('Corner Cases'!W87:W114)</f>
         <v>79</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W15" s="45">
         <f>SUM('Corner Cases'!X87:X114)</f>
         <v>1</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X15" s="3">
         <f>SUM('Corner Cases'!Y87:Y114)</f>
         <v>29</v>
       </c>
-      <c r="Y14" s="45">
+      <c r="Y15" s="45">
         <f>SUM('Corner Cases'!Z87:Z114)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z15" s="3">
         <f>SUM('Corner Cases'!AA87:AA114)</f>
         <v>29</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AA15" s="45">
         <f>SUM('Corner Cases'!AB87:AB114)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB15" s="3">
         <f>SUM('Corner Cases'!AC87:AC114)</f>
         <v>31</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AC15" s="45">
         <f>SUM('Corner Cases'!AD87:AD114)</f>
         <v>1</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD15" s="3">
         <f>SUM('Corner Cases'!AE87:AE114)</f>
         <v>7</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AE15" s="45">
         <f>SUM('Corner Cases'!AF87:AF114)</f>
         <v>1</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF15" s="3">
         <f>SUM('Corner Cases'!AG87:AG114)</f>
         <v>464</v>
       </c>
-      <c r="AG14" s="45">
+      <c r="AG15" s="45">
         <f>SUM('Corner Cases'!AH87:AH114)</f>
         <v>1</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH15" s="3">
         <f>SUM('Corner Cases'!AI87:AI114)</f>
         <v>154</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AI15" s="45">
         <f>SUM('Corner Cases'!AJ87:AJ114)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ15" s="3">
         <f>SUM('Corner Cases'!AK87:AK114)</f>
         <v>41</v>
       </c>
-      <c r="AK14" s="45">
+      <c r="AK15" s="45">
         <f>SUM('Corner Cases'!AL87:AL114)</f>
         <v>1</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL15" s="3">
         <f>SUM('Corner Cases'!AM87:AM114)</f>
         <v>57</v>
       </c>
-      <c r="AM14" s="47">
+      <c r="AM15" s="47">
         <f>SUM('Corner Cases'!AN87:AN114)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM('Corner Cases'!C115:C142)</f>
+        <v>24105</v>
+      </c>
+      <c r="C16" s="45">
+        <f>SUM('Corner Cases'!D115:D142)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM('Corner Cases'!E115:E142)</f>
+        <v>3252</v>
+      </c>
+      <c r="E16" s="45">
+        <f>SUM('Corner Cases'!F115:F142)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>SUM('Corner Cases'!G115:G142)</f>
+        <v>203</v>
+      </c>
+      <c r="G16" s="45">
+        <f>SUM('Corner Cases'!H115:H142)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <f>SUM('Corner Cases'!I115:I142)</f>
+        <v>91</v>
+      </c>
+      <c r="I16" s="45">
+        <f>SUM('Corner Cases'!J115:J142)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <f>SUM('Corner Cases'!K115:K142)</f>
+        <v>116</v>
+      </c>
+      <c r="K16" s="45">
+        <f>SUM('Corner Cases'!L115:L142)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <f>SUM('Corner Cases'!M115:M142)</f>
+        <v>110</v>
+      </c>
+      <c r="M16" s="45">
+        <f>SUM('Corner Cases'!N115:N142)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <f>SUM('Corner Cases'!O115:O142)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="45">
+        <f>SUM('Corner Cases'!P115:P142)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <f>SUM('Corner Cases'!Q115:Q142)</f>
+        <v>243</v>
+      </c>
+      <c r="Q16" s="45">
+        <f>SUM('Corner Cases'!R115:R142)</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <f>SUM('Corner Cases'!S115:S142)</f>
+        <v>537</v>
+      </c>
+      <c r="S16" s="45">
+        <f>SUM('Corner Cases'!T115:T142)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM('Corner Cases'!U115:U142)</f>
+        <v>3201</v>
+      </c>
+      <c r="U16" s="45">
+        <f>SUM('Corner Cases'!V115:V142)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <f>SUM('Corner Cases'!W115:W142)</f>
+        <v>79</v>
+      </c>
+      <c r="W16" s="45">
+        <f>SUM('Corner Cases'!X115:X142)</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <f>SUM('Corner Cases'!Y115:Y142)</f>
+        <v>29</v>
+      </c>
+      <c r="Y16" s="45">
+        <f>SUM('Corner Cases'!Z115:Z142)</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>SUM('Corner Cases'!AA115:AA142)</f>
+        <v>29</v>
+      </c>
+      <c r="AA16" s="45">
+        <f>SUM('Corner Cases'!AB115:AB142)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>SUM('Corner Cases'!AC115:AC142)</f>
+        <v>31</v>
+      </c>
+      <c r="AC16" s="45">
+        <f>SUM('Corner Cases'!AD115:AD142)</f>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>SUM('Corner Cases'!AE115:AE142)</f>
+        <v>7</v>
+      </c>
+      <c r="AE16" s="45">
+        <f>SUM('Corner Cases'!AF115:AF142)</f>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>SUM('Corner Cases'!AG115:AG142)</f>
+        <v>464</v>
+      </c>
+      <c r="AG16" s="45">
+        <f>SUM('Corner Cases'!AH115:AH142)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>SUM('Corner Cases'!AI115:AI142)</f>
+        <v>154</v>
+      </c>
+      <c r="AI16" s="45">
+        <f>SUM('Corner Cases'!AJ115:AJ142)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f>SUM('Corner Cases'!AK115:AK142)</f>
+        <v>41</v>
+      </c>
+      <c r="AK16" s="45">
+        <f>SUM('Corner Cases'!AL115:AL142)</f>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3">
+        <f>SUM('Corner Cases'!AM115:AM142)</f>
+        <v>57</v>
+      </c>
+      <c r="AM16" s="47">
+        <f>SUM('Corner Cases'!AN115:AN142)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="31" t="b">
-        <f>AND(B11=B12, B13=B14, B11=B14)</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="31" t="b">
-        <f>AND(C11=C12, C13=C14, C11=C14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="31" t="b">
-        <f t="shared" ref="D15:AM15" si="0">AND(D11=D12, D13=D14, D11=D14)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="31" t="b">
+      <c r="B17" s="31" t="b">
+        <f>AND(B12=B13, B14=B15, B12=B15)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="b">
+        <f>AND(C12=C13, C14=C15, C12=C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="31" t="b">
+        <f t="shared" ref="D17:AM17" si="0">AND(D12=D13, D14=D15, D12=D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F15" s="31" t="b">
+      <c r="F17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="31" t="b">
+      <c r="G17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="31" t="b">
+      <c r="H17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="31" t="b">
+      <c r="I17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="31" t="b">
+      <c r="J17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="31" t="b">
+      <c r="K17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L15" s="31" t="b">
+      <c r="L17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="31" t="b">
+      <c r="M17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="31" t="b">
+      <c r="N17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="31" t="b">
+      <c r="O17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="31" t="b">
+      <c r="P17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="31" t="b">
+      <c r="Q17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R15" s="31" t="b">
+      <c r="R17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S15" s="31" t="b">
+      <c r="S17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T15" s="31" t="b">
+      <c r="T17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U15" s="31" t="b">
+      <c r="U17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V15" s="31" t="b">
+      <c r="V17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W15" s="31" t="b">
+      <c r="W17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X15" s="31" t="b">
+      <c r="X17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="31" t="b">
+      <c r="Y17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="31" t="b">
+      <c r="Z17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA15" s="31" t="b">
+      <c r="AA17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB15" s="31" t="b">
+      <c r="AB17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="31" t="b">
+      <c r="AC17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="31" t="b">
+      <c r="AD17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE15" s="31" t="b">
+      <c r="AE17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF15" s="31" t="b">
+      <c r="AF17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG15" s="31" t="b">
+      <c r="AG17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH15" s="31" t="b">
+      <c r="AH17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AI15" s="31" t="b">
+      <c r="AI17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ15" s="31" t="b">
+      <c r="AJ17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AK15" s="31" t="b">
+      <c r="AK17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL15" s="31" t="b">
+      <c r="AL17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM15" s="38" t="b">
+      <c r="AM17" s="38" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
